--- a/media/excel_utils/obshi_vizit_excel_Navoiy.xlsx
+++ b/media/excel_utils/obshi_vizit_excel_Navoiy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,6 +478,2229 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-04-02 15:03:42</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Бахтиёр</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>+998945335432</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Хатирчи тумани</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Хатирчи ттб</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>УРИНОВА Манзура</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Ginekolog</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Тавамед Ламино интризол Х-пайлс йозяпти тавар тушди</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-04-02 16:19:37</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sheraliyev Bekzod</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>+998942271363</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Navoi Shahar</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Navoi viʼ koʻp tarmoqli tm</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Rahimova Dilshoda</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Endokrinolog</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Tavamed ha vizit qildim kam ishlataman dedi</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-04-03 11:51:58</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Бахтиёр</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>+998945335432</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Хатирчи тумани</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Хатирчи ттб</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Тураев Шухрат. Т.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pediatr</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>+998901356641</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Уриновадан рицепт чикаяпти дорилар сотилиб бошлади. Тураев Энтро-д, Ламино 100 мл. ишлатиб кураман деди. Рахмонов рамазон дан кейин деди</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-04-03 15:34:26</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>UGILOY</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>+998931992722</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Navoiy shahar</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bolalar kop tarmoqli kasalxonasi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>BAZAROVA DILSOZ</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Kojvenerolog</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>+998977960609</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>aknel yozaman dedi</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-04-04 08:47:26</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>UGILOY</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>+998931992722</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Karmana tumanttb</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Poliklinika</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bozorov Shuxrat</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Urolog</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>997398533</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Lamino preparati bn ishlamoqchi</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-04-04 09:11:40</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>UGILOY</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>+998931992722</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Karmana tumanttb</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Poliklinika</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Salomov nodir</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Nevropotolog</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>945327828</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Yaxshi</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-04-04 11:28:50</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>UGILOY</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>+998931992722</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Karmana tumanttb</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Poliklinika</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Aulov Feruz</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Endokrinolog</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>933151657</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>lamino kompanor dorilari ga xamkorlik qilmoqchi</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-04-04 11:30:23</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>UGILOY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>+998931992722</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Karmana tumanttb</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Poliklinika</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Jalilov xurshid</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Terapevt</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>901381657</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>astaryusga qiziqish buldirdi</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-04-04 14:28:14</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>UGILOY</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>+998931992722</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Karmana tumanttb</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Poliklinika</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Nurmatova</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Kardiolog</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>913395509</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Dorilar bn tanishtirdm</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-04-05 10:38:49</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Бахтиёр</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>+998945335432</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Пахтачи тумани</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Марказий шифохона</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Норкулов Э</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Proktolog</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>98776</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>астароксон, Энтро-д, Ламино 100 мл бир икки касал га синаб кураман деди</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-04-05 11:33:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Бахтиёр</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>+998945335432</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Пахтачи тумани</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Марказий шифохона</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Хайриева. Г</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Ginekolog</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>99890.000.0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>келишолмадик Шартномаси куп экан</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-04-05 11:45:57</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Бахтиёр</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>+998945335432</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Пахтачи тумани</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Марказий шифохона</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Пирназаров. А</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Pediatr</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>99890</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>хар куни 2 дона рицепт Энтро-д га келишилди</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-04-05 12:28:22</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Бахтиёр</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>+998945335432</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Пахтачи тумани</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Марказий шифохона</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Косимов.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Nevropotolog</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>+998978970055</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>стрессом.Ламино 100 мл. асторок сон келишилди</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-04-05 13:28:55</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>UGILOY</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>+998931992722</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Karmana tumanttb</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Terapiya bulimi</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>TuymurodovB</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Terapevt</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>995593003</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>kelasi oydan birga ishlashini aytti</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-04-05 14:10:11</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>UGILOY</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>+998931992722</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Navoiy shahar</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kojven N shaaxar</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Uzoqov Jamshid</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Endokrinolog</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>950703000</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Lamino dorisi bn ishlmoqchi</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-04-05 14:26:34</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>UGILOY</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>+998931992722</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Navoiy shahar</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kojven N shaaxar</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Raxmonov nodir</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Endokrinolog</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>934318888</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>dorilar bn tanishtirdm</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-04-05 14:40:36</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>UGILOY</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>+998931992722</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Navoiy shahar</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Kojven N shaaxar</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Ostonov ravshan</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Kojvenerolog</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>913390450</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>aknel gel</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-04-15 09:26:07</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>UGILOY</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>+998931992722</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Karmana tumanttb</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Poliklinika</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Bozorov Shuxrat</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Urolog</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>997398533</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>lamino 200lik 200ming berdim</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-04-15 09:26:41</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>UGILOY</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>+998931992722</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Karmana tumanttb</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Poliklinika</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Aulov Feruz</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Endokrinolog</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>933151657</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>lamino 100 komponor 100ming berdim</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-04-15 09:27:12</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>UGILOY</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>+998931992722</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Karmana tumanttb</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Poliklinika</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Salomov nodir</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Nevropotolog</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>945327828</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>tavamed 150ming berdim</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-04-15 09:50:18</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>UGILOY</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>+998931992722</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Navoiy shahar</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Guliston polik</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Qayumov</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Gastroenterolog</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>935227610</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>lamino entro D yozyapti</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-04-15 10:41:33</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>UGILOY</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>+998931992722</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Navoiy shahar</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Guliston polik</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Toirova</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Kardiolog</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>902339633</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>lamino 100bn entro D</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-04-15 11:13:17</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>UGILOY</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>+998931992722</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Navoiy shahar</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Guliston polik</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Turarov chingiz</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Nevropotolog</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>919886685</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>komponor va lamino preparati bn taniwtirdm</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-04-15 12:12:13</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>UGILOY</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>+998931992722</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Navoiy shahar</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Guliston polik</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Baxronov tulqin</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Kojvenerolog</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>913390130</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>intizol aknel gel yozyaptila</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-04-15 12:24:38</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>UGILOY</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>+998931992722</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Navoiy shahar</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Guliston polik</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Primov shavkat</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Dermatolog</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>936615713</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>aknel gel entro D bn taniwtirdm</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-04-15 13:06:02</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>UGILOY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>+998931992722</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Navoiy shahar</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Guliston polik</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Karimov sanjar</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Nevropotolog</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>933130300</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>lamino 100 komponor bn taniwtrdm</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:28:02</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>UGILOY</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>+998931992722</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Karmana tumanttb</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Terapiya bulimi</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Salomov nodir</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Nevropotolog</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>945327828</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>tavamed preparatini sust ketayotGaninj aytim</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:33:44</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>UGILOY</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>+998931992722</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Karmana tumanttb</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Terapiya bulimi</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Mardonov jamshid</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Kardiolog</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>3747488$</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>lamino preparati bn taniwtirdm</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:44:23</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>UGILOY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>+998931992722</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Karmana tumanttb</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Nevrologiya</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Parmonov oybek</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Nevropotolog</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>784883</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>komponor preparati bn taniwtirdm</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:53:22</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>UGILOY</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>+998931992722</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Karmana tumanttb</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Terapiya bulimi</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Towev akbar</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Kardiolog</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>8747</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>stresson tab kaga qiziqiw bdirdi</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-04-18 10:56:31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>UGILOY</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>+998931992722</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Karmana tumanttb</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Poliklinika</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Xalilov eldor</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Endokrinolog</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>9903222 17</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>lamino komponor preparati bn taniwtridm</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-04-18 11:55:25</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Бахтиёр</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>+998945335432</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Пахтачи тумани</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Марказий шифохона</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Салаев. И. О</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Travmatolog</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>87654</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>договор бор экан 1 ойдан кейин Келинг деди</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-04-18 12:23:24</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Бахтиёр</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>+998945335432</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Пахтачи тумани</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Марказий шифохона</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Нурмонова</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Gematolog</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>+998947402868</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Астарюсга кунига 2 дона касал га келишилди</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-04-18 14:25:58</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Бахтиёр</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>+998945335432</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Пахтачи тумани</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Марказий шифохона</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Химматова</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Pediatr</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>99895</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Энтро-д га келишилди</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-04-18 14:27:44</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Бахтиёр</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>+998945335432</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Пахтачи тумани</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Марказий шифохона</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Косимов. К</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Nevropotolog</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>99894</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Цепразон. Ламино. Стрессонга келишилди</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-04-19 10:50:26</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Бахтиёр</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>+998945335432</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Хатирчи тумани</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Марказий шифохона</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Ахмедова Азиза</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Infektsionist</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Ламино 100 мл. левомед таблетка га келишилди</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-04-23 09:56:19</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Бахтиёр</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>+998945335432</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Хатирчи тумани</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Хатирчи ттб</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>УРИНОВА Манзура</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Ginekolog</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Тавамед Ливомед Интрезол Х-пайлс маз Ёзиб бошлади</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-04-23 09:57:38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Бахтиёр</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>+998945335432</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Хатирчи тумани</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Хатирчи ттб</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Рахмонов. О.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Det.Xirurg</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>90.132.56.76</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Ламинони ишлатиб кураркан</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-04-23 11:11:41</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Бахтиёр</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>+998945335432</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Хатирчи тумани</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Хатирчи ттб</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Рамило опа</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>LOR</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>9989</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Астараксон га келишилди</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
